--- a/Documentation/ProposalContentHVAC.xlsx
+++ b/Documentation/ProposalContentHVAC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
     <sheet name="DataBase" sheetId="4" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>HVAC</t>
-  </si>
-  <si>
-    <t>Jan Fontanosa and Maasha Maheson</t>
   </si>
   <si>
     <t>https://github.com/fntj0052/HVAC</t>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>for a user-friendly, Internet of Things-based HVAC system</t>
+  </si>
+  <si>
+    <t>Jan Fontanosa, Vyacheslav Perepelytsya, and Maasha Maheson</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -539,8 +539,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -579,7 +579,7 @@
         <v>12</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -595,7 +595,7 @@
         <v>2</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -603,7 +603,7 @@
         <v>3</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="75" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -766,7 +766,7 @@
       </c>
       <c r="C2" s="2" t="str">
         <f>DataEntry!B3</f>
-        <v>Jan Fontanosa and Maasha Maheson</v>
+        <v>Jan Fontanosa, Vyacheslav Perepelytsya, and Maasha Maheson</v>
       </c>
       <c r="D2" s="2" t="str">
         <f>DataEntry!B4</f>
@@ -790,7 +790,7 @@
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
-        <v>Jan Fontanosa and Maasha Maheson</v>
+        <v>Jan Fontanosa, Vyacheslav Perepelytsya, and Maasha Maheson</v>
       </c>
       <c r="J2" s="2" t="str">
         <f>DataEntry!B10</f>

--- a/Documentation/ProposalContentHVAC.xlsx
+++ b/Documentation/ProposalContentHVAC.xlsx
@@ -153,9 +153,6 @@
     </r>
   </si>
   <si>
-    <t>Touch sensor, moisture sensor, LCD touchscreen, and stepper motors</t>
-  </si>
-  <si>
     <t>No additional planned purchases</t>
   </si>
   <si>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Jan Fontanosa, Vyacheslav Perepelytsya, and Maasha Maheson</t>
+  </si>
+  <si>
+    <t>Touch sensor, moisture sensor, LCD touchscreen, and sound sensor</t>
   </si>
 </sst>
 </file>
@@ -540,7 +540,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -774,7 +774,7 @@
       </c>
       <c r="E2" s="2" t="str">
         <f>DataEntry!B5</f>
-        <v>Touch sensor, moisture sensor, LCD touchscreen, and stepper motors</v>
+        <v>Touch sensor, moisture sensor, LCD touchscreen, and sound sensor</v>
       </c>
       <c r="F2" s="2" t="str">
         <f>DataEntry!B6</f>

--- a/Documentation/ProposalContentHVAC.xlsx
+++ b/Documentation/ProposalContentHVAC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -293,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Documentation/ProposalContentHVAC.xlsx
+++ b/Documentation/ProposalContentHVAC.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9735"/>
   </bookViews>
   <sheets>
     <sheet name="DataEntry" sheetId="1" r:id="rId1"/>
@@ -72,9 +72,6 @@
   </si>
   <si>
     <t>Ability to toggle operational mode and set maintenance schedule</t>
-  </si>
-  <si>
-    <t>School of Applied Technology</t>
   </si>
   <si>
     <t>creating and improving upon the monitoring of Heating, Ventilation and Air Conditioning (HVAC) systems with a user-friendly interface, with the ability to remotely control the system activities using a mobile device, and to fetch stored information on the system's condition from a cloud database.</t>
@@ -166,6 +163,9 @@
   </si>
   <si>
     <t>Touch sensor, moisture sensor, LCD touchscreen, and sound sensor</t>
+  </si>
+  <si>
+    <t>Humber Greenhouse</t>
   </si>
 </sst>
 </file>
@@ -293,7 +293,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -328,7 +328,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -540,7 +540,7 @@
   <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,7 +571,7 @@
         <v>13</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,7 +587,7 @@
         <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -611,7 +611,7 @@
         <v>4</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="45" x14ac:dyDescent="0.25">
@@ -619,7 +619,7 @@
         <v>5</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -627,7 +627,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="135" x14ac:dyDescent="0.25">
@@ -635,7 +635,7 @@
         <v>6</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -643,7 +643,7 @@
         <v>8</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="60" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="30" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>11</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -667,7 +667,7 @@
         <v>10</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -786,7 +786,7 @@
       </c>
       <c r="H2" s="2" t="str">
         <f>DataEntry!B8</f>
-        <v>School of Applied Technology</v>
+        <v>Humber Greenhouse</v>
       </c>
       <c r="I2" s="2" t="str">
         <f>DataEntry!B9</f>
